--- a/consultant.xlsx
+++ b/consultant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gittesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D67BE-9ECE-4CF5-A9A4-B96A63AF6720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC552591-9DB1-40DB-B51C-0E07B41E9D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{6DD3AE3E-945C-459D-9685-08B2BCF16310}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DD3AE3E-945C-459D-9685-08B2BCF16310}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Email</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>dashingready@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.Ravi Bathia</t>
   </si>
 </sst>
 </file>
@@ -196,10 +199,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D8EED1-8719-4F3E-BC30-0D4D6E903AD7}">
-  <dimension ref="A4:E21"/>
+  <dimension ref="A4:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +716,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -731,7 +733,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
@@ -748,7 +750,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
@@ -765,7 +767,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
@@ -782,7 +784,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
@@ -799,7 +801,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
@@ -813,6 +815,14 @@
       </c>
       <c r="E21" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
